--- a/hardware/Component-Library.xlsx
+++ b/hardware/Component-Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binon\Desktop\Kururugi-ESC-Dev-Board\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE14BB8-F6A2-4EB2-9A16-DC3F21CC17BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F16D14-A130-4E4B-89F9-D81E29395C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICs" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="229">
   <si>
     <t>Category</t>
   </si>
@@ -698,14 +698,32 @@
     <t>Search for buck</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/filter/voltage-regulators-dc-dc-switching-regulators/739?s=N4IgjCBcoGwJxVAYygMwIYBsDOBTANCAPZQDaIALAAxwDMdIh1cFtVIAuoQA4AuUIAMq8ATgEsAdgHMQAX0Jgw7aCBSQMOAsTKUqADjZ7OPfpCGjJM%2BeABMCFWo15CJSORtUwAdkWMQH7zs-AK9aCmDPLwpwpjgvKiDCLxg9Hy8-bzA9PRgMrxs9BgV8mAoEYpgqKLyYJXZikoBWPL0bGGbiuCpGjv8bHzgbYP6PXMJUgu9h-PjpuyNCG37aMF7k1Kzp2lp0xeXoiMrGsf9uvUbaCNbaBdPW1gjB-OCKL3iTm1fCmP8KPTBEr9-skXtcPn9Pj8bLRoZtFjCcrt-DAYG0IIsUTt0ciYPQhhjSqtgo07KjidEbL0ClV9MF4tRbnYdp9gnQcoyDHQfmw-nByiB8tFsfljviBWxZkkVri-F44Ii-Oy2oqPBReoMwDtFXQWH44CjahkEo1fAoqqVboobGBDQpVtkfopGixsWAKKr%2BW7CjKFCaLkjVtEtb6DD7wI09NETjaViSMgYypcFAYI2KwGyPME3fRwlwQHwBMJxNI5A17Mg0FhnNo3L84JkXnASR99CSoWwuoyO0o-PAqGUu1R2idokGk5Roo1uoq3ps8wWzEXLKXwPLy6pK5oXDp2BxrABaIYOKCiACuWlc5Gae%2BsR-IACNT0gANacWRAA</t>
+    <t>https://www.digikey.com/en/products/filter/voltage-regulators-dc-dc-switching-regulators/739?s=N4IgjCBcoBwOxVAYygMwIYBsDOBTANCAPZQDa4ATGAMwUBsIhALAAwXUyMjUCcddAVhABdQgAcALlBABlCQCcAlgDsA5iAC%2BhMGBaIQKSBhwFiZEKxjUWnUSEnS5StZu0Ue%2Bw8byESkcuwUMHQIhPR09BBh-NRwUSDhvBRc4UxgQmEC7hEpAkxMFBkJMCxwNik8sRRMFRx0nGFWlTWE1kwwPB6EcNVpXHDUYHTU-TzBoSDBMPRc0yxMRXz88bqFOly6cHTtG%2BkwMC3gBfNdRx3DG3lMsZdWF9oCB0wM2sPpyXYOkLIKKupaIAEA08aCwPjM-gSQO2yWi1jGKTgaV0KXgwwm1V4AgYnyk3ycf1cR3cIKMYNMfnI8DiDRASIE6VmLEGRTgAgZLzpdBY236MNOWy2RWmkVm1Top2m%2B3iVjYMvcO0IPEKJMI%2B0GsMmwUVWpKnI6YDgEw6eU1Jp6sx4j0OPCRzP66VtE0qmy4zQ6buo1z0SuoEp9IEq7MWvCYztY8zdrGqG2ZprdVjAtLGaU5KYlCbiNvg7DdPBsmt08AKsYKwVL105unaC1LnQmuiyDN29BYRV0QdOHeeKxYYwEI20uiGtJ0gj7u2oHFHNBCAZ0sXZu1tht2cQo88NFDgXa3rDXA-bhp6g-Ax%2Bea7ZXeuJVPNH2dBW06CG14NHnST62meHK49UfIQbPkj7XmG1hAWGMArEwPDXIcYBhn2DZhuw7ZhnBlxJgi362iWOFopcLAsGAXYCHKo5kbQKzskmd5NgclyFI%2BlzKmGlyPPwlwRDkrwIauDxWmxAlsoWAidC%2BrxenEGyPiKMkblaMkcYWwx3DJEZdtsCENvwFASeA-DtO2BxiaOUG0FW2ootoBx8F2%2BxQfZ-DNjZISAa5JROfAKzwG2hb5gy84dPMQUuqFfqFh0aTwcqxHtvmWyHAcCn%2BTWMXsERGy2rE85jDuVa2nOWVwNKKREVQ-n5vkWU8LouW1eU2idEmtIbnsmobm2bBlTy1kJOk1hFFQA6Nf1VAMWEYDsFNKRDNirXpGRAbDcMHXpI%2BhwrZUs1AkCs16hMAz5vsf4hNinLjdUrJDBEQ16VO8T3QsGJXSdYSRDG73bGJKQcAMrXUGJzFhLwUFDZYWS-eJF1pHKKQFGJGLXFaMPbryYRlvU8OPlO8NZIpGMDmyeMFI9zzNf0QJ1djfqtWGEqnNUcT2pkiUdY8vCnO0JQzdEBabdyVUpMMfa0s8ba8MLrBkVLbKntuyLLWyzmIqtAZhgyuNhCVSYXSVMAucUWw3GEtWVhUzUTNYuiDH%2BfCqnSNDXLMZanLBbKjkRIQQLiji-C4AIkR60AGKCJi%2BOYejCACAC0yQh4YCgAK4UuYQjRwCDAh4oAAm0gx8OXBfCAXASAAnmIuDSOg2AoBoGhAA</t>
+  </si>
+  <si>
+    <t>In 17V, Out 3A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/vishay-siliconix/SIC472ED-T1-GE3/9556546</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>ICs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,8 +745,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,8 +795,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -825,19 +873,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -883,11 +918,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -895,20 +979,73 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -918,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -927,15 +1064,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -950,9 +1078,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -964,73 +1089,38 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,13 +1129,95 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1335,10 +1507,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B2:H24"/>
+  <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1346,477 +1518,670 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="3" max="3" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" style="2" customWidth="1"/>
     <col min="6" max="6" width="49.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.6">
+      <c r="B2" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="24" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="43"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F4" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H4" s="37" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="28" t="s">
+      <c r="I4" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="J4" s="45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
-      <c r="C6" s="13" t="s">
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="48"/>
+      <c r="C7" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="13" t="s">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="48"/>
+      <c r="C8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C9" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="13" t="s">
+      <c r="I9" s="9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="48"/>
+      <c r="C10" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="9">
+        <v>0</v>
+      </c>
+      <c r="J10" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-      <c r="C11" s="13" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="48"/>
+      <c r="C12" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H12" s="6" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="34" t="s">
+      <c r="I12" s="9">
+        <v>0</v>
+      </c>
+      <c r="J12" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="50"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H14" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="7" t="s">
+      <c r="I14" s="9">
+        <v>0</v>
+      </c>
+      <c r="J14" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="48"/>
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="56">
+        <v>1</v>
+      </c>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="48"/>
+      <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="7" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="31" t="s">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="50"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E18" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="9" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="5" t="s">
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G19" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-      <c r="C19" s="7" t="s">
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="48"/>
+      <c r="C20" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="9" t="s">
+      <c r="G20" s="4"/>
+      <c r="H20" s="6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="5"/>
-      <c r="C20" s="7" t="s">
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="48"/>
+      <c r="C21" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G21" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H21" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="3" t="s">
+      <c r="I21" s="9">
+        <v>0</v>
+      </c>
+      <c r="J21" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9" t="s">
+      <c r="F22" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H22" s="6" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="37" t="s">
+      <c r="I22" s="9">
+        <v>0</v>
+      </c>
+      <c r="J22" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" s="48"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0</v>
+      </c>
+      <c r="J23" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="50"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C25" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E25" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F25" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G25" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H25" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="5"/>
-      <c r="C24" s="7" t="s">
+      <c r="I25" s="9">
+        <v>0</v>
+      </c>
+      <c r="J25" s="56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="52"/>
+      <c r="C26" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D26" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="9" t="s">
+      <c r="E26" s="54"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="55" t="s">
         <v>127</v>
       </c>
+      <c r="I26" s="57">
+        <v>0</v>
+      </c>
+      <c r="J26" s="58">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B18:B20"/>
+  <mergeCells count="17">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
+  <conditionalFormatting sqref="I6:J12">
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+        <cfvo type="percent" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:J16">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+        <cfvo type="percent" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:J23">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="1"/>
+        <cfvo type="percent" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:J26">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+        <cfvo type="num" val="0" gte="0"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1" xr:uid="{57C33859-179B-4573-8BCE-2F2776120FF1}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{9F1F8EE4-BE1E-480E-95D4-1270040B22FE}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{EEFA6FCB-3202-482E-88A2-8F9DF8B8A453}"/>
-    <hyperlink ref="E8" r:id="rId4" xr:uid="{5DDB2188-B900-4772-A0D4-A3DB2F2B75C9}"/>
-    <hyperlink ref="E9" r:id="rId5" xr:uid="{DF940AAB-B3F8-4B82-8F67-A812843FEA79}"/>
-    <hyperlink ref="E10" r:id="rId6" xr:uid="{521F4EC9-1433-46E3-92DD-70EE4C5129F9}"/>
-    <hyperlink ref="E11" r:id="rId7" xr:uid="{71296D36-98FB-4B55-85FA-671FD1492AF0}"/>
-    <hyperlink ref="E13" r:id="rId8" xr:uid="{67C35BA2-8BA5-469D-92D9-25C30287E542}"/>
-    <hyperlink ref="H17" r:id="rId9" xr:uid="{C7DAE8B1-7D24-4D82-9CAC-FAA05209AA04}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{BF3C2DEE-319B-47CA-BB7F-CC9DDD316D83}"/>
-    <hyperlink ref="H21" r:id="rId11" xr:uid="{D8A1F51B-D01B-44C7-9E49-7FA996B83847}"/>
-    <hyperlink ref="D21" r:id="rId12" display="https://www.digikey.com.au/en/products/filter/power-management-pmic/voltage-regulators-dc-dc-switching-regulators/16-vfqfn-exposed-pad/739?s=N4IgjCBcpgbFoDGUBmBDANgZwKYBoQA3AOygBcAnAV3xAHsoBtcABgA42AmAVhAF0CABzJQQAZUoBLYgHMQAX0VA" xr:uid="{08026901-09A3-41F1-A40C-633C3F95A180}"/>
-    <hyperlink ref="E21" r:id="rId13" xr:uid="{8D02B26B-9403-49DB-A3FC-4974493D9149}"/>
-    <hyperlink ref="H23" r:id="rId14" xr:uid="{78BFE1A1-9DCE-412E-BEF0-1F3E51F9DC44}"/>
-    <hyperlink ref="E23" r:id="rId15" xr:uid="{FF2076C3-F5D2-4C97-8BCA-B03FB41885C8}"/>
-    <hyperlink ref="G23" r:id="rId16" xr:uid="{95E773F7-E1C0-4DC2-8D2F-7AD94AA9D51B}"/>
-    <hyperlink ref="H24" r:id="rId17" xr:uid="{84B931C7-29AD-4AB1-87E2-CD8764EDB628}"/>
-    <hyperlink ref="G21" r:id="rId18" xr:uid="{8FDCAB0A-B033-4912-B883-1EDAC34E8B2D}"/>
-    <hyperlink ref="H5" r:id="rId19" xr:uid="{D276D29E-36B9-4147-86FC-A90EAC58CC7A}"/>
-    <hyperlink ref="G5" r:id="rId20" xr:uid="{EFCE5A43-584C-4B82-AD48-0B1F2ADEDA83}"/>
-    <hyperlink ref="G8" r:id="rId21" xr:uid="{BB16BAA4-396A-48AC-8CF3-C2FC5C8789AB}"/>
-    <hyperlink ref="H8" r:id="rId22" xr:uid="{A06C3BC2-8981-42EF-A4A9-ED9CF858B957}"/>
-    <hyperlink ref="G11" r:id="rId23" xr:uid="{17A9233F-E10F-4D08-87CB-3FCF1184D961}"/>
-    <hyperlink ref="H11" r:id="rId24" xr:uid="{C500191D-5A98-4734-835A-4985AED496E4}"/>
-    <hyperlink ref="H13" r:id="rId25" xr:uid="{64A0B648-F0C6-4001-BB87-DCA9D5DDE097}"/>
-    <hyperlink ref="H20" r:id="rId26" xr:uid="{2ECCC8A1-0CC1-447C-AB11-8AFA8B551FA4}"/>
-    <hyperlink ref="E19" r:id="rId27" xr:uid="{B0131702-CE26-4519-A807-2DE0A043A513}"/>
-    <hyperlink ref="H19" r:id="rId28" xr:uid="{3616FE39-CA67-47FA-8E62-D53F16E08963}"/>
-    <hyperlink ref="G20" r:id="rId29" xr:uid="{B6187E63-A11A-4A8C-9588-4A5EF93C634A}"/>
-    <hyperlink ref="H18" r:id="rId30" xr:uid="{CF8C73EF-A5F7-402E-9BBC-05D2CCFBE7FA}"/>
-    <hyperlink ref="G18" r:id="rId31" xr:uid="{B05BB727-280A-4A7E-ABE1-D2568F850F50}"/>
-    <hyperlink ref="E18" r:id="rId32" xr:uid="{C6B524EB-FD4F-4A9D-A77C-EE89ED9CDC9A}"/>
-    <hyperlink ref="H7" r:id="rId33" xr:uid="{EC56A510-66A4-4284-8293-92B12C60D544}"/>
-    <hyperlink ref="G7" r:id="rId34" xr:uid="{F15D3F47-E355-4978-AACB-E6B47871268B}"/>
-    <hyperlink ref="E7" r:id="rId35" xr:uid="{54300872-9956-4941-AA92-7973EBE1F4C2}"/>
-    <hyperlink ref="H6" r:id="rId36" xr:uid="{D1EB9BE7-5C1A-4698-B5CC-FD1B52FB8CBD}"/>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{57C33859-179B-4573-8BCE-2F2776120FF1}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{9F1F8EE4-BE1E-480E-95D4-1270040B22FE}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{EEFA6FCB-3202-482E-88A2-8F9DF8B8A453}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{5DDB2188-B900-4772-A0D4-A3DB2F2B75C9}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{DF940AAB-B3F8-4B82-8F67-A812843FEA79}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{521F4EC9-1433-46E3-92DD-70EE4C5129F9}"/>
+    <hyperlink ref="E12" r:id="rId7" xr:uid="{71296D36-98FB-4B55-85FA-671FD1492AF0}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{67C35BA2-8BA5-469D-92D9-25C30287E542}"/>
+    <hyperlink ref="H18" r:id="rId9" xr:uid="{C7DAE8B1-7D24-4D82-9CAC-FAA05209AA04}"/>
+    <hyperlink ref="E18" r:id="rId10" xr:uid="{BF3C2DEE-319B-47CA-BB7F-CC9DDD316D83}"/>
+    <hyperlink ref="H22" r:id="rId11" xr:uid="{D8A1F51B-D01B-44C7-9E49-7FA996B83847}"/>
+    <hyperlink ref="E22" r:id="rId12" xr:uid="{8D02B26B-9403-49DB-A3FC-4974493D9149}"/>
+    <hyperlink ref="H25" r:id="rId13" xr:uid="{78BFE1A1-9DCE-412E-BEF0-1F3E51F9DC44}"/>
+    <hyperlink ref="E25" r:id="rId14" xr:uid="{FF2076C3-F5D2-4C97-8BCA-B03FB41885C8}"/>
+    <hyperlink ref="G25" r:id="rId15" xr:uid="{95E773F7-E1C0-4DC2-8D2F-7AD94AA9D51B}"/>
+    <hyperlink ref="H26" r:id="rId16" xr:uid="{84B931C7-29AD-4AB1-87E2-CD8764EDB628}"/>
+    <hyperlink ref="G22" r:id="rId17" xr:uid="{8FDCAB0A-B033-4912-B883-1EDAC34E8B2D}"/>
+    <hyperlink ref="H6" r:id="rId18" xr:uid="{D276D29E-36B9-4147-86FC-A90EAC58CC7A}"/>
+    <hyperlink ref="G6" r:id="rId19" xr:uid="{EFCE5A43-584C-4B82-AD48-0B1F2ADEDA83}"/>
+    <hyperlink ref="G9" r:id="rId20" xr:uid="{BB16BAA4-396A-48AC-8CF3-C2FC5C8789AB}"/>
+    <hyperlink ref="H9" r:id="rId21" xr:uid="{A06C3BC2-8981-42EF-A4A9-ED9CF858B957}"/>
+    <hyperlink ref="G12" r:id="rId22" xr:uid="{17A9233F-E10F-4D08-87CB-3FCF1184D961}"/>
+    <hyperlink ref="H12" r:id="rId23" xr:uid="{C500191D-5A98-4734-835A-4985AED496E4}"/>
+    <hyperlink ref="H14" r:id="rId24" xr:uid="{64A0B648-F0C6-4001-BB87-DCA9D5DDE097}"/>
+    <hyperlink ref="H21" r:id="rId25" xr:uid="{2ECCC8A1-0CC1-447C-AB11-8AFA8B551FA4}"/>
+    <hyperlink ref="E20" r:id="rId26" xr:uid="{B0131702-CE26-4519-A807-2DE0A043A513}"/>
+    <hyperlink ref="H20" r:id="rId27" xr:uid="{3616FE39-CA67-47FA-8E62-D53F16E08963}"/>
+    <hyperlink ref="G21" r:id="rId28" xr:uid="{B6187E63-A11A-4A8C-9588-4A5EF93C634A}"/>
+    <hyperlink ref="H19" r:id="rId29" xr:uid="{CF8C73EF-A5F7-402E-9BBC-05D2CCFBE7FA}"/>
+    <hyperlink ref="G19" r:id="rId30" xr:uid="{B05BB727-280A-4A7E-ABE1-D2568F850F50}"/>
+    <hyperlink ref="E19" r:id="rId31" xr:uid="{C6B524EB-FD4F-4A9D-A77C-EE89ED9CDC9A}"/>
+    <hyperlink ref="H8" r:id="rId32" xr:uid="{EC56A510-66A4-4284-8293-92B12C60D544}"/>
+    <hyperlink ref="G8" r:id="rId33" xr:uid="{F15D3F47-E355-4978-AACB-E6B47871268B}"/>
+    <hyperlink ref="E8" r:id="rId34" xr:uid="{54300872-9956-4941-AA92-7973EBE1F4C2}"/>
+    <hyperlink ref="H7" r:id="rId35" xr:uid="{D1EB9BE7-5C1A-4698-B5CC-FD1B52FB8CBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -1828,7 +2193,7 @@
   <dimension ref="B2:H23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1844,270 +2209,270 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="5"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="6" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="14" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="7" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="14" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="5"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="7" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="5"/>
-      <c r="C15" s="7" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="6" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2115,87 +2480,87 @@
       <c r="B16" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="5"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="5"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2203,79 +2568,79 @@
       <c r="B20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="9" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="5"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="9" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="6" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2371,38 +2736,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45" t="s">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2416,16 +2781,16 @@
       <c r="D4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2433,98 +2798,98 @@
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="12" t="s">
         <v>211</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="5"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="5"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="5"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="6" t="s">
         <v>98</v>
       </c>
       <c r="K9" t="s">
@@ -2567,8 +2932,8 @@
   </sheetPr>
   <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/hardware/Component-Library.xlsx
+++ b/hardware/Component-Library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binon\Desktop\Kururugi-ESC-Dev-Board\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F16D14-A130-4E4B-89F9-D81E29395C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5018C17-9BAA-4910-868C-6BE8B8102378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,28 @@
     <sheet name="Interfaces" sheetId="2" r:id="rId3"/>
     <sheet name="Draft" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="242">
   <si>
     <t>Category</t>
   </si>
@@ -698,12 +709,6 @@
     <t>Search for buck</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/filter/voltage-regulators-dc-dc-switching-regulators/739?s=N4IgjCBcoBwOxVAYygMwIYBsDOBTANCAPZQDa4ATGAMwUBsIhALAAwXUyMjUCcddAVhABdQgAcALlBABlCQCcAlgDsA5iAC%2BhMGBaIQKSBhwFiZEKxjUWnUSEnS5StZu0Ue%2Bw8byESkcuwUMHQIhPR09BBh-NRwUSDhvBRc4UxgQmEC7hEpAkxMFBkJMCxwNik8sRRMFRx0nGFWlTWE1kwwPB6EcNVpXHDUYHTU-TzBoSDBMPRc0yxMRXz88bqFOly6cHTtG%2BkwMC3gBfNdRx3DG3lMsZdWF9oCB0wM2sPpyXYOkLIKKupaIAEA08aCwPjM-gSQO2yWi1jGKTgaV0KXgwwm1V4AgYnyk3ycf1cR3cIKMYNMfnI8DiDRASIE6VmLEGRTgAgZLzpdBY236MNOWy2RWmkVm1Top2m%2B3iVjYMvcO0IPEKJMI%2B0GsMmwUVWpKnI6YDgEw6eU1Jp6sx4j0OPCRzP66VtE0qmy4zQ6buo1z0SuoEp9IEq7MWvCYztY8zdrGqG2ZprdVjAtLGaU5KYlCbiNvg7DdPBsmt08AKsYKwVL105unaC1LnQmuiyDN29BYRV0QdOHeeKxYYwEI20uiGtJ0gj7u2oHFHNBCAZ0sXZu1tht2cQo88NFDgXa3rDXA-bhp6g-Ax%2Bea7ZXeuJVPNH2dBW06CG14NHnST62meHK49UfIQbPkj7XmG1hAWGMArEwPDXIcYBhn2DZhuw7ZhnBlxJgi362iWOFopcLAsGAXYCHKo5kbQKzskmd5NgclyFI%2BlzKmGlyPPwlwRDkrwIauDxWmxAlsoWAidC%2BrxenEGyPiKMkblaMkcYWwx3DJEZdtsCENvwFASeA-DtO2BxiaOUG0FW2ootoBx8F2%2BxQfZ-DNjZISAa5JROfAKzwG2hb5gy84dPMQUuqFfqFh0aTwcqxHtvmWyHAcCn%2BTWMXsERGy2rE85jDuVa2nOWVwNKKREVQ-n5vkWU8LouW1eU2idEmtIbnsmobm2bBlTy1kJOk1hFFQA6Nf1VAMWEYDsFNKRDNirXpGRAbDcMHXpI%2BhwrZUs1AkCs16hMAz5vsf4hNinLjdUrJDBEQ16VO8T3QsGJXSdYSRDG73bGJKQcAMrXUGJzFhLwUFDZYWS-eJF1pHKKQFGJGLXFaMPbryYRlvU8OPlO8NZIpGMDmyeMFI9zzNf0QJ1djfqtWGEqnNUcT2pkiUdY8vCnO0JQzdEBabdyVUpMMfa0s8ba8MLrBkVLbKntuyLLWyzmIqtAZhgyuNhCVSYXSVMAucUWw3GEtWVhUzUTNYuiDH%2BfCqnSNDXLMZanLBbKjkRIQQLiji-C4AIkR60AGKCJi%2BOYejCACAC0yQh4YCgAK4UuYQjRwCDAh4oAAm0gx8OXBfCAXASAAnmIuDSOg2AoBoGhAA</t>
-  </si>
-  <si>
-    <t>In 17V, Out 3A</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/en/products/detail/vishay-siliconix/SIC472ED-T1-GE3/9556546</t>
   </si>
   <si>
@@ -717,6 +722,51 @@
   </si>
   <si>
     <t>ICs</t>
+  </si>
+  <si>
+    <t>https://www.monolithicpower.com/en/documentview/productdocument/index/version/2/document_type/Datasheet/lang/en/sku/MP4436AGR/document_id/8690/</t>
+  </si>
+  <si>
+    <t>GATE DRIVER</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/en/products/detail/infineon-technologies/2EDL8024GXUMA1/13582321</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/en/products/detail/monolithic-power-systems-inc/MP1922GV-Z/16579179</t>
+  </si>
+  <si>
+    <t>MP1922</t>
+  </si>
+  <si>
+    <t>22-QFN</t>
+  </si>
+  <si>
+    <t>to 100Vin, to 15Vgate, 3A source, 4A sink</t>
+  </si>
+  <si>
+    <t>to 100Vin, to 17Vgate, 4A source, 6A sink HS, 5A sink LS</t>
+  </si>
+  <si>
+    <t>2EDL8024G3C</t>
+  </si>
+  <si>
+    <t>2EDL8024G</t>
+  </si>
+  <si>
+    <t>VDSON-8-4 (4x4mm)</t>
+  </si>
+  <si>
+    <t>VDSON-10-4 (3x3mm)</t>
+  </si>
+  <si>
+    <t>https://jlcpcb.com/partdetail/InfineonTechnologies-2EDL8024G/C3655215</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/filter/voltage-regulators-dc-dc-switching-regulators/739?s=N4IgjCBcoGwJxVAYygMwIYBsDOBTANCAPZQDaIALAAxwUDMVIh1cdrIAuoQA4AuUIAMq8ATgEsAdgHMQAX0IAOAOyIQKSBhwFiZcACYwdPTCaUqeugtNsYMAKyce-SENGSZ88GEbQ1aLHiEJJDk1AoMVlwgfALC4tJyhGB6CL7qmoE6ISB6VGB2tKaG%2BXQQSTBKBRSmBRZ0NXZUFBBRMS5x7ok5dg5p-lpBupZweQiEw02Mrc6u8R6Edkr1fRoB2sHkelt0paZ69HB2JoR6izAUenswDHBWJ0rN3nvK1yrTsW4Jnoa5qulrg2yFx2KUc0RmHS%2BSVuqWQ-UyGxAU08AFpLitRABXda6BwcWSeEy%2BMQAEwEKO8ZXBAlMvAAntxcAJ0NgUASgA</t>
+  </si>
+  <si>
+    <t>In 17V, Out 0.9-6V@3A</t>
   </si>
 </sst>
 </file>
@@ -802,7 +852,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -918,134 +968,14 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1055,7 +985,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1099,6 +1029,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,12 +1056,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1129,94 +1077,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1507,15 +1381,16 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:K26"/>
+  <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
     <col min="3" max="3" width="23.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.26953125" style="2" customWidth="1"/>
@@ -1524,84 +1399,83 @@
     <col min="8" max="8" width="21.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:11" ht="26" x14ac:dyDescent="0.6">
-      <c r="B2" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="43" t="s">
+    <row r="2" spans="2:10" ht="26" x14ac:dyDescent="0.6">
+      <c r="B2" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="J3" s="44"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="43"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="36" t="s">
+      <c r="H3" s="36"/>
+      <c r="I3" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="J4" s="45" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="46" t="s">
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="47"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="48" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1622,13 +1496,13 @@
       <c r="I6" s="9">
         <v>0</v>
       </c>
-      <c r="J6" s="56">
+      <c r="J6" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
-      <c r="C7" s="59" t="s">
+    <row r="7" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B7" s="25"/>
+      <c r="C7" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1647,13 +1521,13 @@
       <c r="I7" s="9">
         <v>0</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
-      <c r="C8" s="59" t="s">
+    <row r="8" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="25"/>
+      <c r="C8" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1674,15 +1548,15 @@
       <c r="I8" s="9">
         <v>0</v>
       </c>
-      <c r="J8" s="56">
+      <c r="J8" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="48" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="21" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1703,13 +1577,13 @@
       <c r="I9" s="9">
         <v>0</v>
       </c>
-      <c r="J9" s="56">
+      <c r="J9" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="48"/>
-      <c r="C10" s="59" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="25"/>
+      <c r="C10" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1726,15 +1600,15 @@
       <c r="I10" s="9">
         <v>0</v>
       </c>
-      <c r="J10" s="56">
+      <c r="J10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="48" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1751,13 +1625,13 @@
       <c r="I11" s="9">
         <v>0</v>
       </c>
-      <c r="J11" s="56">
+      <c r="J11" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="48"/>
-      <c r="C12" s="59" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="25"/>
+      <c r="C12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1778,25 +1652,25 @@
       <c r="I12" s="9">
         <v>0</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="49" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="50"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="48" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1820,12 +1694,12 @@
       <c r="I14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" s="56">
+      <c r="J14" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="48"/>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="25"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1837,13 +1711,12 @@
       <c r="I15" s="9">
         <v>0</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="9">
         <v>1</v>
       </c>
-      <c r="K15" s="29"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="48"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="25"/>
       <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1857,25 +1730,25 @@
       <c r="I16" s="9">
         <v>0</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="50"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1897,12 +1770,12 @@
       <c r="I18" s="9">
         <v>0</v>
       </c>
-      <c r="J18" s="56">
+      <c r="J18" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="25" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1926,12 +1799,12 @@
       <c r="I19" s="9">
         <v>0</v>
       </c>
-      <c r="J19" s="56">
+      <c r="J19" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="48"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="4" t="s">
         <v>184</v>
       </c>
@@ -1951,12 +1824,12 @@
       <c r="I20" s="9">
         <v>0</v>
       </c>
-      <c r="J20" s="56">
+      <c r="J20" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="48"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="4" t="s">
         <v>181</v>
       </c>
@@ -1974,12 +1847,12 @@
       <c r="I21" s="9">
         <v>0</v>
       </c>
-      <c r="J21" s="56">
+      <c r="J21" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="37" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1992,7 +1865,7 @@
         <v>136</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>167</v>
@@ -2003,98 +1876,191 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-      <c r="J22" s="56">
+      <c r="J22" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="48"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="7"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I23" s="9">
         <v>0</v>
       </c>
-      <c r="J23" s="56">
+      <c r="J23" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="50"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="48" t="s">
-        <v>119</v>
+      <c r="B25" s="37" t="s">
+        <v>228</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>137</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E25" s="7"/>
       <c r="F25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>122</v>
+        <v>233</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
       </c>
-      <c r="J25" s="56">
+      <c r="J25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B26" s="38"/>
+      <c r="C26" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I26" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="52"/>
-      <c r="C26" s="53" t="s">
+      <c r="J26" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B27" s="39"/>
+      <c r="C27" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="25"/>
+      <c r="C30" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D30" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E26" s="54"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="55" t="s">
+      <c r="E30" s="7"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I30" s="9">
         <v>0</v>
       </c>
-      <c r="J26" s="58">
+      <c r="J30" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="B5:J5"/>
     <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B28:J28"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B3:B4"/>
@@ -2104,11 +2070,9 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:J12">
-    <cfRule type="iconSet" priority="16">
+    <cfRule type="iconSet" priority="37">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="1"/>
@@ -2117,7 +2081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J16">
-    <cfRule type="iconSet" priority="3">
+    <cfRule type="iconSet" priority="24">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="1"/>
@@ -2125,8 +2089,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18:J23">
-    <cfRule type="iconSet" priority="2">
+  <conditionalFormatting sqref="I18:J27">
+    <cfRule type="iconSet" priority="23">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="1"/>
@@ -2134,8 +2098,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25:J26">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="I29:J30">
+    <cfRule type="iconSet" priority="22">
       <iconSet iconSet="3Symbols2" showValue="0">
         <cfvo type="percent" val="0"/>
         <cfvo type="num" val="0" gte="0"/>
@@ -2156,10 +2120,10 @@
     <hyperlink ref="E18" r:id="rId10" xr:uid="{BF3C2DEE-319B-47CA-BB7F-CC9DDD316D83}"/>
     <hyperlink ref="H22" r:id="rId11" xr:uid="{D8A1F51B-D01B-44C7-9E49-7FA996B83847}"/>
     <hyperlink ref="E22" r:id="rId12" xr:uid="{8D02B26B-9403-49DB-A3FC-4974493D9149}"/>
-    <hyperlink ref="H25" r:id="rId13" xr:uid="{78BFE1A1-9DCE-412E-BEF0-1F3E51F9DC44}"/>
-    <hyperlink ref="E25" r:id="rId14" xr:uid="{FF2076C3-F5D2-4C97-8BCA-B03FB41885C8}"/>
-    <hyperlink ref="G25" r:id="rId15" xr:uid="{95E773F7-E1C0-4DC2-8D2F-7AD94AA9D51B}"/>
-    <hyperlink ref="H26" r:id="rId16" xr:uid="{84B931C7-29AD-4AB1-87E2-CD8764EDB628}"/>
+    <hyperlink ref="H29" r:id="rId13" xr:uid="{78BFE1A1-9DCE-412E-BEF0-1F3E51F9DC44}"/>
+    <hyperlink ref="E29" r:id="rId14" xr:uid="{FF2076C3-F5D2-4C97-8BCA-B03FB41885C8}"/>
+    <hyperlink ref="G29" r:id="rId15" xr:uid="{95E773F7-E1C0-4DC2-8D2F-7AD94AA9D51B}"/>
+    <hyperlink ref="H30" r:id="rId16" xr:uid="{84B931C7-29AD-4AB1-87E2-CD8764EDB628}"/>
     <hyperlink ref="G22" r:id="rId17" xr:uid="{8FDCAB0A-B033-4912-B883-1EDAC34E8B2D}"/>
     <hyperlink ref="H6" r:id="rId18" xr:uid="{D276D29E-36B9-4147-86FC-A90EAC58CC7A}"/>
     <hyperlink ref="G6" r:id="rId19" xr:uid="{EFCE5A43-584C-4B82-AD48-0B1F2ADEDA83}"/>
@@ -2209,25 +2173,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="16" t="s">
         <v>32</v>
       </c>
@@ -2245,7 +2209,7 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2268,7 +2232,7 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="19"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
@@ -2287,7 +2251,7 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="19"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="4" t="s">
         <v>45</v>
       </c>
@@ -2308,7 +2272,7 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="4" t="s">
         <v>49</v>
       </c>
@@ -2350,7 +2314,7 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="25" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2373,7 +2337,7 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="19"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="4" t="s">
         <v>86</v>
       </c>
@@ -2394,7 +2358,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="25" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2413,7 +2377,7 @@
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="19"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
         <v>91</v>
@@ -2426,7 +2390,7 @@
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="19"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
         <v>92</v>
@@ -2439,7 +2403,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="4" t="s">
         <v>195</v>
       </c>
@@ -2458,7 +2422,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="19"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="4" t="s">
         <v>200</v>
       </c>
@@ -2500,7 +2464,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="25" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2523,7 +2487,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="19"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="4" t="s">
         <v>102</v>
       </c>
@@ -2544,7 +2508,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="19"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="4" t="s">
         <v>107</v>
       </c>
@@ -2588,7 +2552,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="25" t="s">
         <v>150</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2609,7 +2573,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="19"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="4" t="s">
         <v>156</v>
       </c>
@@ -2736,25 +2700,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="20" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
       <c r="D3" s="17" t="s">
         <v>32</v>
       </c>
@@ -2816,7 +2780,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2837,7 +2801,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="19"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="4" t="s">
         <v>74</v>
       </c>
@@ -2856,7 +2820,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="19"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="4" t="s">
         <v>78</v>
       </c>
@@ -2875,7 +2839,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="19"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="4" t="s">
         <v>97</v>
       </c>
@@ -2933,7 +2897,7 @@
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2948,7 +2912,7 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/Component-Library.xlsx
+++ b/hardware/Component-Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binon\Desktop\Kururugi-ESC-Dev-Board\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5018C17-9BAA-4910-868C-6BE8B8102378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE4571E-B563-4078-A1F2-32B23C7F55F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICs" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="242">
   <si>
     <t>Category</t>
   </si>
@@ -346,9 +346,6 @@
     <t>10 pin 1,27 for Cortex-M Debug</t>
   </si>
   <si>
-    <t>ESD</t>
-  </si>
-  <si>
     <t>TPD4E05U06DQAR</t>
   </si>
   <si>
@@ -763,10 +760,13 @@
     <t>https://jlcpcb.com/partdetail/InfineonTechnologies-2EDL8024G/C3655215</t>
   </si>
   <si>
-    <t>https://www.digikey.com/en/products/filter/voltage-regulators-dc-dc-switching-regulators/739?s=N4IgjCBcoGwJxVAYygMwIYBsDOBTANCAPZQDaIALAAxwUDMVIh1cdrIAuoQA4AuUIAMq8ATgEsAdgHMQAX0IAOAOyIQKSBhwFiZcACYwdPTCaUqeugtNsYMAKyce-SENGSZ88GEbQ1aLHiEJJDk1AoMVlwgfALC4tJyhGB6CL7qmoE6ISB6VGB2tKaG%2BXQQSTBKBRSmBRZ0NXZUFBBRMS5x7ok5dg5p-lpBupZweQiEw02Mrc6u8R6Edkr1fRoB2sHkelt0paZ69HB2JoR6izAUenswDHBWJ0rN3nvK1yrTsW4Jnoa5qulrg2yFx2KUc0RmHS%2BSVuqWQ-UyGxAU08AFpLitRABXda6BwcWSeEy%2BMQAEwEKO8ZXBAlMvAAntxcAJ0NgUASgA</t>
-  </si>
-  <si>
     <t>In 17V, Out 0.9-6V@3A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/filter/voltage-regulators-dc-dc-switching-regulators/739?s=N4IgjCBcoGwJxVAYygMwIYBsDOBTANCAPZQDaIALAAxwUDMVIh1cdrIAuoQA4AuUIAMq8ATgEsAdgHMQAX0IAOAOyIQKSBhwFiZcACYwdPTCaUqeugtNsYMAKyce-SENGSZ88GEbQ1aLHiEJJDk1AoMVlwgfALC4tJyhGB6CL7qmoE6ISB6VGB2tKaG%2BXQQSTBKBRSmBRZ0NXZUFBBRMS5x7ok5dg5p-lpBupZweQiEw02Mrc6u8R6Edkr1fRoB2sHkelt0paZ69HB2JoR6izAUenswDHBWJ0rN3nvK1yrTsW4Jnoa5qulrg2yFx2KUc0RmHS%2BSVuqWQ-UyGxAU08AFpLitRABXda6BwcWSeXqgbhQMA8EmQU4EoA</t>
+  </si>
+  <si>
+    <t>TVS DIODE</t>
   </si>
 </sst>
 </file>
@@ -1018,13 +1018,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,12 +1031,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1056,12 +1055,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,6 +1083,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1383,8 +1385,8 @@
   </sheetPr>
   <dimension ref="B2:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1400,98 +1402,98 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26" x14ac:dyDescent="0.6">
-      <c r="B2" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="B2" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="36" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="J3" s="36"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>225</v>
-      </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="18" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I6" s="9">
         <v>0</v>
@@ -1501,22 +1503,22 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I7" s="9">
         <v>0</v>
@@ -1526,24 +1528,24 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I8" s="9">
         <v>0</v>
@@ -1553,27 +1555,27 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>171</v>
-      </c>
       <c r="I9" s="9">
         <v>0</v>
       </c>
@@ -1582,15 +1584,15 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="25"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>17</v>
@@ -1605,17 +1607,17 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>39</v>
@@ -1630,25 +1632,25 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="25"/>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>173</v>
-      </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
@@ -1657,20 +1659,20 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1680,7 +1682,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>39</v>
@@ -1689,7 +1691,7 @@
         <v>28</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I14" s="9">
         <v>0</v>
@@ -1699,7 +1701,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1716,7 +1718,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="25"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1735,17 +1737,17 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
@@ -1758,7 +1760,7 @@
         <v>57</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>55</v>
@@ -1775,26 +1777,26 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="25" t="s">
-        <v>180</v>
+      <c r="B19" s="24" t="s">
+        <v>179</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>193</v>
-      </c>
       <c r="G19" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I19" s="9">
         <v>0</v>
@@ -1804,22 +1806,22 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="25"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I20" s="9">
         <v>0</v>
@@ -1829,20 +1831,20 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="25"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I21" s="9">
         <v>0</v>
@@ -1852,7 +1854,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="34" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1862,13 +1864,13 @@
         <v>60</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>59</v>
@@ -1881,14 +1883,14 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="38"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="7"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I23" s="9">
         <v>0</v>
@@ -1898,39 +1900,39 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="39"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="7"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="I24" s="9">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="37" t="s">
-        <v>228</v>
-      </c>
       <c r="C25" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>232</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I25" s="9">
         <v>0</v>
@@ -1940,20 +1942,20 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="38"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I26" s="9">
         <v>1</v>
@@ -1963,22 +1965,22 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="39"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I27" s="9">
         <v>1</v>
@@ -1988,60 +1990,60 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B29" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="25" t="s">
+      <c r="C29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+      <c r="J29" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="24"/>
+      <c r="C30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-      <c r="J29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="25"/>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I30" s="9">
         <v>0</v>
@@ -2154,10 +2156,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B2:H23"/>
+  <dimension ref="B2:J23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2167,49 +2169,59 @@
     <col min="3" max="3" width="25.453125" customWidth="1"/>
     <col min="4" max="4" width="26.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="6" max="6" width="36.90625" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="26" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="37"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="27"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="16" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="25" t="s">
+      <c r="I3" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B4" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2219,20 +2231,26 @@
         <v>42</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="25"/>
+      <c r="I4" s="38">
+        <v>0</v>
+      </c>
+      <c r="J4" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="24"/>
       <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
@@ -2240,7 +2258,7 @@
         <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>40</v>
@@ -2249,9 +2267,15 @@
       <c r="H5" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="25"/>
+      <c r="I5" s="38">
+        <v>0</v>
+      </c>
+      <c r="J5" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B6" s="24"/>
       <c r="C6" s="4" t="s">
         <v>45</v>
       </c>
@@ -2259,7 +2283,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>46</v>
@@ -2270,9 +2294,15 @@
       <c r="H6" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
+      <c r="I6" s="38">
+        <v>0</v>
+      </c>
+      <c r="J6" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B7" s="24"/>
       <c r="C7" s="4" t="s">
         <v>49</v>
       </c>
@@ -2280,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>46</v>
@@ -2289,8 +2319,14 @@
       <c r="H7" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I7" s="38">
+        <v>0</v>
+      </c>
+      <c r="J7" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>65</v>
       </c>
@@ -2301,7 +2337,7 @@
         <v>70</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>69</v>
@@ -2312,9 +2348,15 @@
       <c r="H8" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="25" t="s">
+      <c r="I8" s="38">
+        <v>0</v>
+      </c>
+      <c r="J8" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B9" s="24" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2324,7 +2366,7 @@
         <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>84</v>
@@ -2335,9 +2377,15 @@
       <c r="H9" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="25"/>
+      <c r="I9" s="38">
+        <v>0</v>
+      </c>
+      <c r="J9" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>86</v>
       </c>
@@ -2345,7 +2393,7 @@
         <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>85</v>
@@ -2356,9 +2404,15 @@
       <c r="H10" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="25" t="s">
+      <c r="I10" s="38">
+        <v>0</v>
+      </c>
+      <c r="J10" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="24" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2369,15 +2423,21 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>95</v>
       </c>
       <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="25"/>
+      <c r="I11" s="38">
+        <v>0</v>
+      </c>
+      <c r="J11" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="24"/>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
         <v>91</v>
@@ -2388,9 +2448,15 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="25"/>
+      <c r="I12" s="38">
+        <v>0</v>
+      </c>
+      <c r="J12" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B13" s="24"/>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
         <v>92</v>
@@ -2401,215 +2467,282 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="25"/>
+      <c r="I13" s="38">
+        <v>0</v>
+      </c>
+      <c r="J13" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B14" s="24"/>
       <c r="C14" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="I14" s="38">
+        <v>0</v>
+      </c>
+      <c r="J14" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B15" s="24"/>
+      <c r="C15" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="25"/>
-      <c r="C15" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="I15" s="38">
+        <v>0</v>
+      </c>
+      <c r="J15" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="G16" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="25" t="s">
+      <c r="I16" s="38">
+        <v>0</v>
+      </c>
+      <c r="J16" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="38">
+        <v>0</v>
+      </c>
+      <c r="J17" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="24"/>
+      <c r="C18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="25"/>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="G18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="I18" s="38">
+        <v>0</v>
+      </c>
+      <c r="J18" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="24"/>
+      <c r="C19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="25"/>
-      <c r="C19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="G19" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="38">
+        <v>0</v>
+      </c>
+      <c r="J19" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="B20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="F20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="25" t="s">
+      <c r="I20" s="38">
+        <v>0</v>
+      </c>
+      <c r="J20" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="38">
+        <v>0</v>
+      </c>
+      <c r="J21" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" s="24"/>
+      <c r="C22" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="25"/>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="I22" s="38">
+        <v>0</v>
+      </c>
+      <c r="J22" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="4"/>
       <c r="F23" s="11"/>
       <c r="G23" s="4"/>
       <c r="H23" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
+      </c>
+      <c r="I23" s="38">
+        <v>0</v>
+      </c>
+      <c r="J23" s="38">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="D2:F2"/>
@@ -2621,6 +2754,24 @@
     <mergeCell ref="B17:B19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="I4:I23">
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4:J23">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2" showValue="0">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="1"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H4" r:id="rId1" xr:uid="{77CE8013-1BB1-433D-94A3-B2FAB9921B3A}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{8E84968F-3D5A-40EC-B9C0-E90712451C7F}"/>
@@ -2700,38 +2851,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="26" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="27"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="15" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2746,13 +2897,13 @@
         <v>39</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>52</v>
@@ -2763,24 +2914,24 @@
         <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2790,7 +2941,7 @@
         <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>75</v>
@@ -2801,7 +2952,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="25"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="4" t="s">
         <v>74</v>
       </c>
@@ -2809,7 +2960,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>76</v>
@@ -2820,7 +2971,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="25"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="4" t="s">
         <v>78</v>
       </c>
@@ -2828,7 +2979,7 @@
         <v>39</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>79</v>
@@ -2839,7 +2990,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="25"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>97</v>
       </c>
@@ -2897,7 +3048,7 @@
   <dimension ref="B2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2907,7 +3058,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.35">

--- a/hardware/Component-Library.xlsx
+++ b/hardware/Component-Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binon\Desktop\Kururugi-ESC-Dev-Board\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE4571E-B563-4078-A1F2-32B23C7F55F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E19811E-2EA2-482D-AFBA-5BAA1689B696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICs" sheetId="1" r:id="rId1"/>
@@ -1031,22 +1031,61 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,45 +1093,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1402,42 +1402,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="26" x14ac:dyDescent="0.6">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="J3" s="33"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="16" t="s">
         <v>32</v>
       </c>
@@ -1461,20 +1461,20 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
@@ -1503,7 +1503,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B7" s="24"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="18" t="s">
         <v>4</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="24"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="18" t="s">
@@ -1584,7 +1584,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="24"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
@@ -1607,7 +1607,7 @@
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="18" t="s">
@@ -1632,7 +1632,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="24"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="18" t="s">
         <v>15</v>
       </c>
@@ -1659,20 +1659,20 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1701,7 +1701,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="24"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1718,7 +1718,7 @@
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="24"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1737,17 +1737,17 @@
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
@@ -1777,7 +1777,7 @@
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="28" t="s">
         <v>179</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1806,7 +1806,7 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="24"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="4" t="s">
         <v>183</v>
       </c>
@@ -1831,7 +1831,7 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="24"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="4" t="s">
         <v>180</v>
       </c>
@@ -1854,7 +1854,7 @@
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="25" t="s">
         <v>61</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1883,7 +1883,7 @@
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B23" s="35"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="7"/>
@@ -1900,7 +1900,7 @@
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B24" s="36"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="7"/>
@@ -1917,7 +1917,7 @@
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="25" t="s">
         <v>227</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1942,7 +1942,7 @@
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B26" s="35"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="4" t="s">
         <v>234</v>
       </c>
@@ -1965,7 +1965,7 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="36"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="4" t="s">
         <v>235</v>
       </c>
@@ -1990,20 +1990,20 @@
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="28" t="s">
         <v>118</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2032,7 +2032,7 @@
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="24"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="4" t="s">
         <v>124</v>
       </c>
@@ -2054,11 +2054,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B13:J13"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B25:B27"/>
@@ -2072,6 +2067,11 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B13:J13"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:J12">
     <cfRule type="iconSet" priority="37">
@@ -2159,7 +2159,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2175,30 +2175,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="19" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="39" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="20" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -2221,7 +2221,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2242,15 +2242,15 @@
       <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="38">
-        <v>0</v>
-      </c>
-      <c r="J4" s="38">
+      <c r="I4" s="19">
+        <v>0</v>
+      </c>
+      <c r="J4" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="24"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
@@ -2267,15 +2267,15 @@
       <c r="H5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="38">
-        <v>0</v>
-      </c>
-      <c r="J5" s="38">
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="J5" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="24"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="4" t="s">
         <v>45</v>
       </c>
@@ -2294,15 +2294,15 @@
       <c r="H6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="38">
-        <v>0</v>
-      </c>
-      <c r="J6" s="38">
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="J6" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="24"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4" t="s">
         <v>49</v>
       </c>
@@ -2319,10 +2319,10 @@
       <c r="H7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="38">
-        <v>0</v>
-      </c>
-      <c r="J7" s="38">
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2348,15 +2348,15 @@
       <c r="H8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="38">
-        <v>0</v>
-      </c>
-      <c r="J8" s="38">
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="J8" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="28" t="s">
         <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -2377,15 +2377,15 @@
       <c r="H9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="38">
-        <v>0</v>
-      </c>
-      <c r="J9" s="38">
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+      <c r="J9" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="24"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="4" t="s">
         <v>86</v>
       </c>
@@ -2404,15 +2404,15 @@
       <c r="H10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="38">
-        <v>0</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+      <c r="J10" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="28" t="s">
         <v>90</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -2429,15 +2429,15 @@
         <v>95</v>
       </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="38">
-        <v>0</v>
-      </c>
-      <c r="J11" s="38">
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="24"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="4"/>
       <c r="D12" s="10" t="s">
         <v>91</v>
@@ -2448,15 +2448,15 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="38">
-        <v>0</v>
-      </c>
-      <c r="J12" s="38">
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+      <c r="J12" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="24"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="4"/>
       <c r="D13" s="10" t="s">
         <v>92</v>
@@ -2467,15 +2467,15 @@
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="38">
-        <v>0</v>
-      </c>
-      <c r="J13" s="38">
+      <c r="I13" s="19">
+        <v>0</v>
+      </c>
+      <c r="J13" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="24"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="4" t="s">
         <v>194</v>
       </c>
@@ -2492,15 +2492,15 @@
       <c r="H14" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="I14" s="38">
-        <v>0</v>
-      </c>
-      <c r="J14" s="38">
+      <c r="I14" s="19">
+        <v>0</v>
+      </c>
+      <c r="J14" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="24"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="4" t="s">
         <v>199</v>
       </c>
@@ -2517,10 +2517,10 @@
       <c r="H15" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="I15" s="38">
-        <v>0</v>
-      </c>
-      <c r="J15" s="38">
+      <c r="I15" s="19">
+        <v>0</v>
+      </c>
+      <c r="J15" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2546,15 +2546,15 @@
       <c r="H16" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="I16" s="38">
-        <v>0</v>
-      </c>
-      <c r="J16" s="38">
+      <c r="I16" s="19">
+        <v>0</v>
+      </c>
+      <c r="J16" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="28" t="s">
         <v>241</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2575,15 +2575,15 @@
       <c r="H17" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="I17" s="38">
-        <v>0</v>
-      </c>
-      <c r="J17" s="38">
+      <c r="I17" s="19">
+        <v>0</v>
+      </c>
+      <c r="J17" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="24"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="4" t="s">
         <v>101</v>
       </c>
@@ -2602,15 +2602,15 @@
       <c r="H18" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I18" s="38">
-        <v>0</v>
-      </c>
-      <c r="J18" s="38">
+      <c r="I18" s="19">
+        <v>0</v>
+      </c>
+      <c r="J18" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="24"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="4" t="s">
         <v>106</v>
       </c>
@@ -2629,10 +2629,10 @@
       <c r="H19" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="I19" s="38">
-        <v>0</v>
-      </c>
-      <c r="J19" s="38">
+      <c r="I19" s="19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2658,15 +2658,15 @@
       <c r="H20" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="38">
-        <v>0</v>
-      </c>
-      <c r="J20" s="38">
+      <c r="I20" s="19">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="28" t="s">
         <v>149</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2685,15 +2685,15 @@
       <c r="H21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I21" s="38">
-        <v>0</v>
-      </c>
-      <c r="J21" s="38">
+      <c r="I21" s="19">
+        <v>0</v>
+      </c>
+      <c r="J21" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B22" s="24"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="4" t="s">
         <v>155</v>
       </c>
@@ -2712,10 +2712,10 @@
       <c r="H22" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="38">
-        <v>0</v>
-      </c>
-      <c r="J22" s="38">
+      <c r="I22" s="19">
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2733,10 +2733,10 @@
       <c r="H23" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="I23" s="38">
-        <v>0</v>
-      </c>
-      <c r="J23" s="38">
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="19">
         <v>1</v>
       </c>
     </row>
@@ -2851,25 +2851,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="25" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="26"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="14" t="s">
         <v>32</v>
       </c>
@@ -2931,7 +2931,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="28" t="s">
         <v>71</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2952,7 +2952,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="24"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="4" t="s">
         <v>74</v>
       </c>
@@ -2971,7 +2971,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="24"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="4" t="s">
         <v>78</v>
       </c>
@@ -2990,7 +2990,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="24"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="4" t="s">
         <v>97</v>
       </c>
